--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_0_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1698642.543150866</v>
+        <v>-1699078.858825312</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218615.8834996849</v>
+        <v>218615.8834996851</v>
       </c>
     </row>
     <row r="8">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>311.1891448188464</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>143.1293465090313</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.31025029145793</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,10 +792,10 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>226.1116663261494</v>
+        <v>11.39380514884137</v>
       </c>
       <c r="W3" t="n">
         <v>238.9027100790231</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.53079011854128</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>77.98390611024926</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>129.8899810666678</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>92.51741891843339</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>24.33442936961208</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>8.224655460146177</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>133.3468600696244</v>
@@ -990,7 +990,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -1041,7 +1041,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -1099,16 +1099,16 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>128.9874563185103</v>
       </c>
       <c r="U7" t="n">
-        <v>277.0140198902758</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.59060356446535</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>271.5472678282105</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>156.3779457667949</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>128.9874563185103</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>298.9434052799213</v>
       </c>
       <c r="F11" t="n">
-        <v>318.1152213678984</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>320.0484892653209</v>
+        <v>109.0732050951533</v>
       </c>
       <c r="H11" t="n">
         <v>237.5986042436309</v>
       </c>
       <c r="I11" t="n">
-        <v>79.19456938825901</v>
+        <v>79.19456938825903</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.46222820091664</v>
+        <v>93.46222820091666</v>
       </c>
       <c r="T11" t="n">
         <v>130.220899391266</v>
@@ -1427,16 +1427,16 @@
         <v>160.442025508113</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.7150239479851</v>
       </c>
       <c r="W11" t="n">
-        <v>267.015123425942</v>
+        <v>267.0151234259421</v>
       </c>
       <c r="X11" t="n">
-        <v>286.3153816586886</v>
+        <v>286.3153816586887</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.33649786480686</v>
+        <v>297.7119794548875</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>53.1329711713359</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>89.8253575825031</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>76.02535242790358</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>58.59446668126141</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>59.06139100944772</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>75.33609373079555</v>
+        <v>75.33609373079557</v>
       </c>
       <c r="H13" t="n">
-        <v>65.88446135348597</v>
+        <v>65.88446135348599</v>
       </c>
       <c r="I13" t="n">
-        <v>50.86655653831532</v>
+        <v>50.86655653831534</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>56.13210615673263</v>
+        <v>56.13210615673265</v>
       </c>
       <c r="S13" t="n">
         <v>119.6782075553164</v>
       </c>
       <c r="T13" t="n">
-        <v>138.952706237445</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>192.4238797007582</v>
       </c>
       <c r="V13" t="n">
-        <v>70.72629101098961</v>
+        <v>166.2334939821287</v>
       </c>
       <c r="W13" t="n">
-        <v>191.4003800527419</v>
+        <v>191.400380052742</v>
       </c>
       <c r="X13" t="n">
-        <v>137.0454820485451</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.9203498046127</v>
+        <v>67.79260309900955</v>
       </c>
     </row>
     <row r="14">
@@ -1616,13 +1616,13 @@
         <v>298.9434052799213</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>318.1152213678985</v>
       </c>
       <c r="G14" t="n">
-        <v>320.0484892653209</v>
+        <v>320.048489265321</v>
       </c>
       <c r="H14" t="n">
-        <v>226.5234256445978</v>
+        <v>237.5986042436309</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.46222820091664</v>
+        <v>93.46222820091666</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>42.26979346022086</v>
       </c>
       <c r="U14" t="n">
-        <v>160.442025508113</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.7150239479851</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>267.015123425942</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>286.3153816586886</v>
+        <v>286.3153816586887</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>297.7119794548875</v>
       </c>
     </row>
     <row r="15">
@@ -1698,7 +1698,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>112.875723691445</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
         <v>98.93847887876893</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S15" t="n">
         <v>151.2714921173871</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.82535758250309</v>
+        <v>89.8253575825031</v>
       </c>
       <c r="C16" t="n">
-        <v>76.02535242790357</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>59.64671682548196</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>58.59446668126141</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>59.06139100944772</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>75.33609373079557</v>
       </c>
       <c r="H16" t="n">
-        <v>65.88446135348597</v>
+        <v>65.88446135348599</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>50.86655653831534</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.13210615673263</v>
+        <v>56.13210615673265</v>
       </c>
       <c r="S16" t="n">
         <v>119.6782075553164</v>
@@ -1819,19 +1819,19 @@
         <v>138.952706237445</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>192.4238797007582</v>
       </c>
       <c r="V16" t="n">
         <v>166.2334939821287</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>191.400380052742</v>
       </c>
       <c r="X16" t="n">
-        <v>137.0454820485451</v>
+        <v>4.86524928946593</v>
       </c>
       <c r="Y16" t="n">
-        <v>124.5187503194383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S18" t="n">
-        <v>136.7060008318832</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
         <v>186.7982527956746</v>
@@ -2081,7 +2081,7 @@
         <v>223.974038980382</v>
       </c>
       <c r="C20" t="n">
-        <v>211.9853559380637</v>
+        <v>211.9853559380645</v>
       </c>
       <c r="D20" t="n">
         <v>202.9666599825917</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050007</v>
       </c>
       <c r="S21" t="n">
-        <v>136.7060008318832</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T21" t="n">
         <v>186.7982527956746</v>
@@ -2403,7 +2403,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>145.5577298436975</v>
+        <v>130.9922385581937</v>
       </c>
       <c r="F24" t="n">
         <v>133.3468600696244</v>
@@ -2448,7 +2448,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>172.2327615101707</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
         <v>216.3098444776729</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>261.4420352612603</v>
+        <v>261.4420352612602</v>
       </c>
       <c r="C26" t="n">
         <v>249.453352218942</v>
@@ -2573,7 +2573,7 @@
         <v>200.8319927970851</v>
       </c>
       <c r="I26" t="n">
-        <v>42.42795794171329</v>
+        <v>42.42795794171326</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>56.69561675437092</v>
+        <v>56.69561675437089</v>
       </c>
       <c r="T26" t="n">
-        <v>93.45428794472028</v>
+        <v>93.45428794472025</v>
       </c>
       <c r="U26" t="n">
         <v>123.6754140615672</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.05874613595736</v>
+        <v>53.05874613595734</v>
       </c>
       <c r="C28" t="n">
-        <v>39.25874098135785</v>
+        <v>39.25874098135782</v>
       </c>
       <c r="D28" t="n">
-        <v>22.88010537893624</v>
+        <v>22.88010537893621</v>
       </c>
       <c r="E28" t="n">
-        <v>21.82785523471568</v>
+        <v>21.82785523471566</v>
       </c>
       <c r="F28" t="n">
-        <v>22.29477956290199</v>
+        <v>22.29477956290197</v>
       </c>
       <c r="G28" t="n">
-        <v>38.56948228424983</v>
+        <v>38.5694822842498</v>
       </c>
       <c r="H28" t="n">
-        <v>29.11784990694025</v>
+        <v>29.11784990694022</v>
       </c>
       <c r="I28" t="n">
-        <v>14.0999450917696</v>
+        <v>14.09994509176957</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.36549471018691</v>
+        <v>19.36549471018688</v>
       </c>
       <c r="S28" t="n">
-        <v>82.91159610877065</v>
+        <v>82.91159610877062</v>
       </c>
       <c r="T28" t="n">
         <v>102.1860947908993</v>
       </c>
       <c r="U28" t="n">
-        <v>155.6572682542125</v>
+        <v>155.6572682542124</v>
       </c>
       <c r="V28" t="n">
-        <v>129.466882535583</v>
+        <v>129.4668825355829</v>
       </c>
       <c r="W28" t="n">
         <v>154.6337686061962</v>
@@ -2779,7 +2779,7 @@
         <v>100.2788706019993</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.15373835806702</v>
+        <v>91.15373835806699</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>261.4420352612603</v>
+        <v>261.4420352612602</v>
       </c>
       <c r="C29" t="n">
         <v>249.453352218942</v>
@@ -2810,7 +2810,7 @@
         <v>200.8319927970851</v>
       </c>
       <c r="I29" t="n">
-        <v>42.42795794171329</v>
+        <v>42.42795794171326</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>56.69561675437092</v>
+        <v>56.69561675437089</v>
       </c>
       <c r="T29" t="n">
-        <v>93.45428794472028</v>
+        <v>93.45428794472025</v>
       </c>
       <c r="U29" t="n">
         <v>123.6754140615672</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.05874613595736</v>
+        <v>53.05874613595734</v>
       </c>
       <c r="C31" t="n">
-        <v>39.25874098135785</v>
+        <v>39.25874098135782</v>
       </c>
       <c r="D31" t="n">
-        <v>22.88010537893624</v>
+        <v>22.88010537893621</v>
       </c>
       <c r="E31" t="n">
-        <v>21.82785523471568</v>
+        <v>21.82785523471566</v>
       </c>
       <c r="F31" t="n">
-        <v>22.29477956290199</v>
+        <v>22.29477956290197</v>
       </c>
       <c r="G31" t="n">
-        <v>38.56948228424983</v>
+        <v>38.5694822842498</v>
       </c>
       <c r="H31" t="n">
-        <v>29.11784990694025</v>
+        <v>29.11784990694022</v>
       </c>
       <c r="I31" t="n">
-        <v>14.0999450917696</v>
+        <v>14.09994509176957</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>19.36549471018691</v>
+        <v>19.36549471018688</v>
       </c>
       <c r="S31" t="n">
-        <v>82.91159610877065</v>
+        <v>82.91159610877062</v>
       </c>
       <c r="T31" t="n">
         <v>102.1860947908993</v>
       </c>
       <c r="U31" t="n">
-        <v>155.6572682542125</v>
+        <v>155.6572682542124</v>
       </c>
       <c r="V31" t="n">
-        <v>129.466882535583</v>
+        <v>129.4668825355829</v>
       </c>
       <c r="W31" t="n">
         <v>154.6337686061962</v>
@@ -3016,7 +3016,7 @@
         <v>100.2788706019993</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.15373835806702</v>
+        <v>91.15373835806699</v>
       </c>
     </row>
     <row r="32">
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T36" t="n">
-        <v>172.2327615101711</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U36" t="n">
         <v>216.3098444776729</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>44.62093493050052</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3645,7 +3645,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X39" t="n">
-        <v>181.3723269554799</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y39" t="n">
         <v>190.5961130869169</v>
@@ -3837,7 +3837,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -3977,25 +3977,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C44" t="n">
-        <v>211.9853559380637</v>
+        <v>211.9853559380638</v>
       </c>
       <c r="D44" t="n">
-        <v>202.9666599825917</v>
+        <v>202.9666599825918</v>
       </c>
       <c r="E44" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F44" t="n">
-        <v>243.8806136404744</v>
+        <v>243.8806136404745</v>
       </c>
       <c r="G44" t="n">
-        <v>245.8138815378969</v>
+        <v>245.813881537897</v>
       </c>
       <c r="H44" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I44" t="n">
-        <v>4.959961660835006</v>
+        <v>4.959961660835035</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.22762047349264</v>
+        <v>19.22762047349266</v>
       </c>
       <c r="T44" t="n">
-        <v>55.986291663842</v>
+        <v>55.98629166384202</v>
       </c>
       <c r="U44" t="n">
-        <v>86.20741778068896</v>
+        <v>86.20741778068898</v>
       </c>
       <c r="V44" t="n">
-        <v>167.4804162205611</v>
+        <v>167.4804162205612</v>
       </c>
       <c r="W44" t="n">
-        <v>192.780515698518</v>
+        <v>192.7805156985181</v>
       </c>
       <c r="X44" t="n">
-        <v>212.0807739312646</v>
+        <v>212.0807739312647</v>
       </c>
       <c r="Y44" t="n">
         <v>223.4773717274634</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15.59074985507908</v>
+        <v>15.59074985507911</v>
       </c>
       <c r="C46" t="n">
-        <v>1.790744700479564</v>
+        <v>1.790744700479593</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.101486003371548</v>
+        <v>1.101486003371576</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.44359982789237</v>
+        <v>45.4435998278924</v>
       </c>
       <c r="T46" t="n">
-        <v>64.71809851002101</v>
+        <v>64.71809851002104</v>
       </c>
       <c r="U46" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V46" t="n">
-        <v>91.99888625470467</v>
+        <v>91.9988862547047</v>
       </c>
       <c r="W46" t="n">
-        <v>117.1657723253179</v>
+        <v>117.165772325318</v>
       </c>
       <c r="X46" t="n">
-        <v>62.81087432112105</v>
+        <v>62.81087432112108</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.68574207718873</v>
+        <v>53.68574207718876</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>567.3278654180253</v>
+        <v>1553.308794107195</v>
       </c>
       <c r="C2" t="n">
-        <v>567.3278654180253</v>
+        <v>1171.375035440002</v>
       </c>
       <c r="D2" t="n">
-        <v>567.3278654180253</v>
+        <v>798.5510706672255</v>
       </c>
       <c r="E2" t="n">
-        <v>567.3278654180253</v>
+        <v>798.5510706672255</v>
       </c>
       <c r="F2" t="n">
-        <v>557.2170787685998</v>
+        <v>788.4402840178</v>
       </c>
       <c r="G2" t="n">
-        <v>545.1534962631919</v>
+        <v>372.3362974719879</v>
       </c>
       <c r="H2" t="n">
-        <v>212.3322218605011</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="I2" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="J2" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="K2" t="n">
-        <v>228.7015208236839</v>
+        <v>228.7015208236834</v>
       </c>
       <c r="L2" t="n">
-        <v>576.5868939086301</v>
+        <v>576.5868939086297</v>
       </c>
       <c r="M2" t="n">
-        <v>969.826060161718</v>
+        <v>969.8260601617176</v>
       </c>
       <c r="N2" t="n">
-        <v>1348.157418849434</v>
+        <v>1348.157418849433</v>
       </c>
       <c r="O2" t="n">
-        <v>1653.162003322268</v>
+        <v>1653.162003322267</v>
       </c>
       <c r="P2" t="n">
-        <v>1881.318899778321</v>
+        <v>1881.31889977832</v>
       </c>
       <c r="Q2" t="n">
-        <v>1975.751153464858</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R2" t="n">
         <v>1885.112866960711</v>
@@ -4358,22 +4358,22 @@
         <v>1697.883891591065</v>
       </c>
       <c r="T2" t="n">
-        <v>1473.524945322076</v>
+        <v>1697.883891591065</v>
       </c>
       <c r="U2" t="n">
-        <v>1218.63960903607</v>
+        <v>1697.883891591065</v>
       </c>
       <c r="V2" t="n">
-        <v>881.6603349320117</v>
+        <v>1697.883891591065</v>
       </c>
       <c r="W2" t="n">
-        <v>567.3278654180253</v>
+        <v>1697.883891591065</v>
       </c>
       <c r="X2" t="n">
-        <v>567.3278654180253</v>
+        <v>1553.308794107195</v>
       </c>
       <c r="Y2" t="n">
-        <v>567.3278654180253</v>
+        <v>1553.308794107195</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>454.1101699989293</v>
+        <v>771.7997736282124</v>
       </c>
       <c r="C3" t="n">
-        <v>454.1101699989293</v>
+        <v>610.0961008691671</v>
       </c>
       <c r="D3" t="n">
-        <v>315.2715329891413</v>
+        <v>471.2574638593792</v>
       </c>
       <c r="E3" t="n">
-        <v>168.2435230460126</v>
+        <v>471.2574638593792</v>
       </c>
       <c r="F3" t="n">
-        <v>168.2435230460126</v>
+        <v>336.5636658092535</v>
       </c>
       <c r="G3" t="n">
-        <v>39.51502306929716</v>
+        <v>207.8351658325381</v>
       </c>
       <c r="H3" t="n">
-        <v>39.51502306929716</v>
+        <v>107.8973083792362</v>
       </c>
       <c r="I3" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="J3" t="n">
-        <v>99.76916960240331</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="K3" t="n">
-        <v>329.259722162592</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="L3" t="n">
-        <v>695.0815673327077</v>
+        <v>149.6518896266364</v>
       </c>
       <c r="M3" t="n">
-        <v>1180.114920842934</v>
+        <v>634.6852431368628</v>
       </c>
       <c r="N3" t="n">
-        <v>1669.113331325487</v>
+        <v>1123.683653619415</v>
       </c>
       <c r="O3" t="n">
-        <v>1975.751153464858</v>
+        <v>1515.883604403566</v>
       </c>
       <c r="P3" t="n">
-        <v>1975.751153464858</v>
+        <v>1817.979523679263</v>
       </c>
       <c r="Q3" t="n">
-        <v>1975.751153464858</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R3" t="n">
-        <v>1915.966884559804</v>
+        <v>1915.966884559803</v>
       </c>
       <c r="S3" t="n">
-        <v>1763.167397572544</v>
+        <v>1763.167397572543</v>
       </c>
       <c r="T3" t="n">
         <v>1574.482293738529</v>
       </c>
       <c r="U3" t="n">
-        <v>1355.987501336839</v>
+        <v>1574.482293738529</v>
       </c>
       <c r="V3" t="n">
-        <v>1127.591878785173</v>
+        <v>1562.97339964879</v>
       </c>
       <c r="W3" t="n">
-        <v>886.2760100184831</v>
+        <v>1321.6575308821</v>
       </c>
       <c r="X3" t="n">
-        <v>688.3590218962777</v>
+        <v>1123.740542759894</v>
       </c>
       <c r="Y3" t="n">
-        <v>495.8376955458565</v>
+        <v>931.2192164094733</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.8053829869843</v>
+        <v>1443.691908218925</v>
       </c>
       <c r="C4" t="n">
-        <v>169.8053829869843</v>
+        <v>1443.691908218925</v>
       </c>
       <c r="D4" t="n">
-        <v>169.8053829869843</v>
+        <v>1443.691908218925</v>
       </c>
       <c r="E4" t="n">
-        <v>169.8053829869843</v>
+        <v>1443.691908218925</v>
       </c>
       <c r="F4" t="n">
-        <v>169.8053829869843</v>
+        <v>1443.691908218925</v>
       </c>
       <c r="G4" t="n">
-        <v>169.8053829869843</v>
+        <v>1443.691908218925</v>
       </c>
       <c r="H4" t="n">
-        <v>169.8053829869843</v>
+        <v>1443.691908218925</v>
       </c>
       <c r="I4" t="n">
-        <v>99.57226165512444</v>
+        <v>1443.691908218925</v>
       </c>
       <c r="J4" t="n">
-        <v>39.51502306929716</v>
+        <v>1443.691908218925</v>
       </c>
       <c r="K4" t="n">
-        <v>73.11921081394057</v>
+        <v>1477.296095963569</v>
       </c>
       <c r="L4" t="n">
-        <v>173.7262902142001</v>
+        <v>1577.903175363828</v>
       </c>
       <c r="M4" t="n">
-        <v>291.7197963418018</v>
+        <v>1695.89668149143</v>
       </c>
       <c r="N4" t="n">
-        <v>410.1421380914022</v>
+        <v>1814.31902324103</v>
       </c>
       <c r="O4" t="n">
-        <v>508.6057845870918</v>
+        <v>1912.78266973672</v>
       </c>
       <c r="P4" t="n">
-        <v>571.5742683152296</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="Q4" t="n">
-        <v>533.0369269689186</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R4" t="n">
-        <v>383.5151455832968</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="S4" t="n">
-        <v>169.8053829869843</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="T4" t="n">
-        <v>169.8053829869843</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="U4" t="n">
-        <v>169.8053829869843</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="V4" t="n">
-        <v>169.8053829869843</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="W4" t="n">
-        <v>169.8053829869843</v>
+        <v>1896.979531131272</v>
       </c>
       <c r="X4" t="n">
-        <v>169.8053829869843</v>
+        <v>1665.727067026648</v>
       </c>
       <c r="Y4" t="n">
-        <v>169.8053829869843</v>
+        <v>1443.691908218925</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1080.46362516266</v>
+        <v>155.1413305255786</v>
       </c>
       <c r="C5" t="n">
-        <v>698.5298664954676</v>
+        <v>155.1413305255786</v>
       </c>
       <c r="D5" t="n">
-        <v>567.3278654180253</v>
+        <v>155.1413305255786</v>
       </c>
       <c r="E5" t="n">
-        <v>567.3278654180253</v>
+        <v>155.1413305255786</v>
       </c>
       <c r="F5" t="n">
-        <v>557.2170787685998</v>
+        <v>145.030543876153</v>
       </c>
       <c r="G5" t="n">
-        <v>545.1534962631919</v>
+        <v>132.966961370745</v>
       </c>
       <c r="H5" t="n">
-        <v>212.3322218605011</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="I5" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="J5" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="K5" t="n">
         <v>279.6553951140799</v>
       </c>
       <c r="L5" t="n">
-        <v>576.5868939086301</v>
+        <v>627.5407681990262</v>
       </c>
       <c r="M5" t="n">
-        <v>969.826060161718</v>
+        <v>1020.779934452114</v>
       </c>
       <c r="N5" t="n">
-        <v>1348.157418849434</v>
+        <v>1399.11129313983</v>
       </c>
       <c r="O5" t="n">
-        <v>1653.162003322268</v>
+        <v>1653.162003322267</v>
       </c>
       <c r="P5" t="n">
-        <v>1881.318899778321</v>
+        <v>1881.31889977832</v>
       </c>
       <c r="Q5" t="n">
-        <v>1975.751153464858</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R5" t="n">
         <v>1885.112866960711</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.883891591065</v>
+        <v>1885.112866960711</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.883891591065</v>
+        <v>1885.112866960711</v>
       </c>
       <c r="U5" t="n">
-        <v>1442.998555305059</v>
+        <v>1630.227530674705</v>
       </c>
       <c r="V5" t="n">
-        <v>1442.998555305059</v>
+        <v>1293.248256570646</v>
       </c>
       <c r="W5" t="n">
-        <v>1080.46362516266</v>
+        <v>930.7133264282472</v>
       </c>
       <c r="X5" t="n">
-        <v>1080.46362516266</v>
+        <v>548.6831859497406</v>
       </c>
       <c r="Y5" t="n">
-        <v>1080.46362516266</v>
+        <v>155.1413305255786</v>
       </c>
     </row>
     <row r="6">
@@ -4620,58 +4620,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>688.3590218962777</v>
+        <v>471.2574638593792</v>
       </c>
       <c r="C6" t="n">
-        <v>526.6553491372324</v>
+        <v>471.2574638593792</v>
       </c>
       <c r="D6" t="n">
-        <v>518.347616349206</v>
+        <v>471.2574638593792</v>
       </c>
       <c r="E6" t="n">
-        <v>371.3196064060772</v>
+        <v>471.2574638593792</v>
       </c>
       <c r="F6" t="n">
-        <v>236.6258083559516</v>
+        <v>336.5636658092535</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8973083792362</v>
+        <v>207.8351658325381</v>
       </c>
       <c r="H6" t="n">
         <v>107.8973083792362</v>
       </c>
       <c r="I6" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="J6" t="n">
-        <v>39.51502306929716</v>
+        <v>99.7691696024033</v>
       </c>
       <c r="K6" t="n">
-        <v>269.0055756294858</v>
+        <v>329.259722162592</v>
       </c>
       <c r="L6" t="n">
-        <v>634.8274207996014</v>
+        <v>695.0815673327077</v>
       </c>
       <c r="M6" t="n">
-        <v>1119.860774309828</v>
+        <v>1180.114920842934</v>
       </c>
       <c r="N6" t="n">
-        <v>1515.883604403566</v>
+        <v>1669.113331325486</v>
       </c>
       <c r="O6" t="n">
-        <v>1515.883604403566</v>
+        <v>1817.979523679263</v>
       </c>
       <c r="P6" t="n">
-        <v>1817.979523679264</v>
+        <v>1817.979523679263</v>
       </c>
       <c r="Q6" t="n">
-        <v>1975.751153464858</v>
+        <v>1975.751153464857</v>
       </c>
       <c r="R6" t="n">
-        <v>1915.966884559804</v>
+        <v>1915.966884559803</v>
       </c>
       <c r="S6" t="n">
-        <v>1763.167397572544</v>
+        <v>1763.167397572543</v>
       </c>
       <c r="T6" t="n">
         <v>1574.482293738529</v>
@@ -4683,13 +4683,13 @@
         <v>1127.591878785173</v>
       </c>
       <c r="W6" t="n">
-        <v>886.2760100184831</v>
+        <v>886.2760100184827</v>
       </c>
       <c r="X6" t="n">
-        <v>688.3590218962777</v>
+        <v>688.3590218962772</v>
       </c>
       <c r="Y6" t="n">
-        <v>688.3590218962777</v>
+        <v>495.837695545856</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4699,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="C7" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="D7" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="E7" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="F7" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="G7" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="H7" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="I7" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="J7" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="K7" t="n">
-        <v>73.11921081394057</v>
+        <v>73.11921081394055</v>
       </c>
       <c r="L7" t="n">
-        <v>173.7262902142001</v>
+        <v>173.7262902142</v>
       </c>
       <c r="M7" t="n">
         <v>291.7197963418018</v>
@@ -4747,28 +4747,28 @@
         <v>533.0369269689186</v>
       </c>
       <c r="R7" t="n">
-        <v>533.0369269689186</v>
+        <v>383.5151455832968</v>
       </c>
       <c r="S7" t="n">
-        <v>319.3271643726061</v>
+        <v>169.8053829869843</v>
       </c>
       <c r="T7" t="n">
-        <v>319.3271643726061</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="U7" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="V7" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="W7" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="X7" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
       <c r="Y7" t="n">
-        <v>39.51502306929716</v>
+        <v>39.51502306929715</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>458.984345149926</v>
+        <v>1346.556577011013</v>
       </c>
       <c r="C8" t="n">
-        <v>458.984345149926</v>
+        <v>964.6228183438207</v>
       </c>
       <c r="D8" t="n">
-        <v>458.984345149926</v>
+        <v>964.6228183438207</v>
       </c>
       <c r="E8" t="n">
-        <v>64.19862525603281</v>
+        <v>569.8370984499275</v>
       </c>
       <c r="F8" t="n">
-        <v>54.08783860660719</v>
+        <v>559.7263118005019</v>
       </c>
       <c r="G8" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H8" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2101.212805059961</v>
+        <v>2046.070781257471</v>
       </c>
       <c r="S8" t="n">
-        <v>2101.212805059961</v>
+        <v>2046.070781257471</v>
       </c>
       <c r="T8" t="n">
-        <v>2101.212805059961</v>
+        <v>2046.070781257471</v>
       </c>
       <c r="U8" t="n">
-        <v>1846.327468773955</v>
+        <v>2046.070781257471</v>
       </c>
       <c r="V8" t="n">
-        <v>1509.348194669897</v>
+        <v>1709.091507153412</v>
       </c>
       <c r="W8" t="n">
-        <v>1235.058025146452</v>
+        <v>1346.556577011013</v>
       </c>
       <c r="X8" t="n">
-        <v>853.027884667945</v>
+        <v>1346.556577011013</v>
       </c>
       <c r="Y8" t="n">
-        <v>853.027884667945</v>
+        <v>1346.556577011013</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>637.3366538315036</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>1122.37000734173</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N9" t="n">
-        <v>1633.635653464852</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O9" t="n">
-        <v>2025.835604249003</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P9" t="n">
         <v>2101.212805059961</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>351.9907913164409</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>194.0332703398804</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>194.0332703398804</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
         <v>42.02425610119923</v>
@@ -4984,28 +4984,28 @@
         <v>535.5461600008207</v>
       </c>
       <c r="R10" t="n">
-        <v>535.5461600008207</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S10" t="n">
-        <v>535.5461600008207</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="T10" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U10" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V10" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W10" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1597.667903912637</v>
+        <v>1063.233049833783</v>
       </c>
       <c r="C11" t="n">
-        <v>1597.667903912637</v>
+        <v>1063.233049833783</v>
       </c>
       <c r="D11" t="n">
-        <v>1317.66662339747</v>
+        <v>783.2317693186155</v>
       </c>
       <c r="E11" t="n">
-        <v>1015.703587761186</v>
+        <v>481.2687336823315</v>
       </c>
       <c r="F11" t="n">
-        <v>694.3750813289654</v>
+        <v>481.2687336823315</v>
       </c>
       <c r="G11" t="n">
         <v>371.0937790407625</v>
@@ -5036,22 +5036,22 @@
         <v>131.0951888956807</v>
       </c>
       <c r="I11" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J11" t="n">
         <v>214.074731475774</v>
       </c>
       <c r="K11" t="n">
-        <v>545.1906163614394</v>
+        <v>532.916618702297</v>
       </c>
       <c r="L11" t="n">
-        <v>893.0759894463856</v>
+        <v>880.8019917872432</v>
       </c>
       <c r="M11" t="n">
-        <v>1286.315155699474</v>
+        <v>1365.016670881214</v>
       </c>
       <c r="N11" t="n">
-        <v>1755.622027228072</v>
+        <v>1743.348029568929</v>
       </c>
       <c r="O11" t="n">
         <v>2139.328126882646</v>
@@ -5075,16 +5075,16 @@
         <v>2167.028512952473</v>
       </c>
       <c r="V11" t="n">
-        <v>2167.028512952473</v>
+        <v>1922.871923106024</v>
       </c>
       <c r="W11" t="n">
-        <v>1897.316267067683</v>
+        <v>1653.159677221234</v>
       </c>
       <c r="X11" t="n">
-        <v>1608.108810846786</v>
+        <v>1363.952221000336</v>
       </c>
       <c r="Y11" t="n">
-        <v>1597.667903912637</v>
+        <v>1063.233049833783</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>915.700817404025</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C12" t="n">
-        <v>753.9971446449797</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D12" t="n">
-        <v>615.1585076351918</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E12" t="n">
-        <v>468.130497692063</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F12" t="n">
-        <v>333.4366996419374</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G12" t="n">
-        <v>204.7081996652219</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H12" t="n">
-        <v>104.77034221192</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I12" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J12" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K12" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L12" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M12" t="n">
         <v>1191.700572135723</v>
@@ -5142,22 +5142,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R12" t="n">
-        <v>2495.249449199232</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S12" t="n">
         <v>2342.449962211973</v>
       </c>
       <c r="T12" t="n">
-        <v>2153.764858377958</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U12" t="n">
-        <v>1935.270065976268</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V12" t="n">
-        <v>1706.874443424602</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W12" t="n">
-        <v>1465.558574657912</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X12" t="n">
         <v>1267.641586535707</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>363.9723605371424</v>
+        <v>321.9213451201671</v>
       </c>
       <c r="C13" t="n">
-        <v>363.9723605371424</v>
+        <v>245.1280598394563</v>
       </c>
       <c r="D13" t="n">
-        <v>363.9723605371424</v>
+        <v>245.1280598394563</v>
       </c>
       <c r="E13" t="n">
-        <v>304.7860305560702</v>
+        <v>245.1280598394563</v>
       </c>
       <c r="F13" t="n">
         <v>245.1280598394563</v>
@@ -5194,10 +5194,10 @@
         <v>102.4810345017982</v>
       </c>
       <c r="I13" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J13" t="n">
-        <v>83.21408766499903</v>
+        <v>83.21408766499901</v>
       </c>
       <c r="K13" t="n">
         <v>207.793788250525</v>
@@ -5206,7 +5206,7 @@
         <v>399.3763804916671</v>
       </c>
       <c r="M13" t="n">
-        <v>608.3453994601515</v>
+        <v>608.3453994601514</v>
       </c>
       <c r="N13" t="n">
         <v>817.7432540506344</v>
@@ -5227,22 +5227,22 @@
         <v>1036.745299076874</v>
       </c>
       <c r="T13" t="n">
-        <v>896.3890301501618</v>
+        <v>1036.745299076874</v>
       </c>
       <c r="U13" t="n">
-        <v>896.3890301501618</v>
+        <v>842.3777438235832</v>
       </c>
       <c r="V13" t="n">
-        <v>824.9483321592633</v>
+        <v>674.4651236396147</v>
       </c>
       <c r="W13" t="n">
-        <v>631.6146149342715</v>
+        <v>481.1314064146228</v>
       </c>
       <c r="X13" t="n">
-        <v>493.1848350872563</v>
+        <v>481.1314064146228</v>
       </c>
       <c r="Y13" t="n">
-        <v>363.9723605371424</v>
+        <v>412.6540295469379</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1194.267627751306</v>
+        <v>1526.783183273459</v>
       </c>
       <c r="C14" t="n">
-        <v>905.156553341722</v>
+        <v>1237.672108863875</v>
       </c>
       <c r="D14" t="n">
-        <v>905.156553341722</v>
+        <v>1237.672108863875</v>
       </c>
       <c r="E14" t="n">
-        <v>603.193517705438</v>
+        <v>935.7090732275911</v>
       </c>
       <c r="F14" t="n">
-        <v>603.193517705438</v>
+        <v>614.3805667953704</v>
       </c>
       <c r="G14" t="n">
-        <v>279.912215417235</v>
+        <v>291.0992645071674</v>
       </c>
       <c r="H14" t="n">
         <v>51.10067436208573</v>
@@ -5279,22 +5279,22 @@
         <v>214.074731475774</v>
       </c>
       <c r="K14" t="n">
-        <v>545.1906163614394</v>
+        <v>454.2151035205567</v>
       </c>
       <c r="L14" t="n">
-        <v>984.0515022872682</v>
+        <v>893.0759894463856</v>
       </c>
       <c r="M14" t="n">
-        <v>1377.290668540356</v>
+        <v>1286.315155699474</v>
       </c>
       <c r="N14" t="n">
-        <v>1755.622027228072</v>
+        <v>1664.646514387189</v>
       </c>
       <c r="O14" t="n">
-        <v>2060.626611700906</v>
+        <v>2048.352614041763</v>
       </c>
       <c r="P14" t="n">
-        <v>2379.759020997842</v>
+        <v>2367.485023338699</v>
       </c>
       <c r="Q14" t="n">
         <v>2552.892789866119</v>
@@ -5306,22 +5306,22 @@
         <v>2460.62742699225</v>
       </c>
       <c r="T14" t="n">
-        <v>2460.62742699225</v>
+        <v>2417.93066592132</v>
       </c>
       <c r="U14" t="n">
-        <v>2298.564774963853</v>
+        <v>2417.93066592132</v>
       </c>
       <c r="V14" t="n">
-        <v>2054.408185117403</v>
+        <v>2417.93066592132</v>
       </c>
       <c r="W14" t="n">
-        <v>1784.695939232613</v>
+        <v>2417.93066592132</v>
       </c>
       <c r="X14" t="n">
-        <v>1495.488483011716</v>
+        <v>2128.723209700422</v>
       </c>
       <c r="Y14" t="n">
-        <v>1495.488483011716</v>
+        <v>1828.004038533869</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>915.7008174040254</v>
+        <v>930.4134348641297</v>
       </c>
       <c r="C15" t="n">
-        <v>753.9971446449802</v>
+        <v>768.7097621050845</v>
       </c>
       <c r="D15" t="n">
-        <v>615.1585076351922</v>
+        <v>629.8711250952965</v>
       </c>
       <c r="E15" t="n">
-        <v>468.1304976920634</v>
+        <v>482.8431151521678</v>
       </c>
       <c r="F15" t="n">
-        <v>333.4366996419378</v>
+        <v>348.1493171020421</v>
       </c>
       <c r="G15" t="n">
         <v>219.4208171253267</v>
@@ -5379,28 +5379,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R15" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S15" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T15" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U15" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V15" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W15" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X15" t="n">
-        <v>1267.641586535707</v>
+        <v>1282.354203995812</v>
       </c>
       <c r="Y15" t="n">
-        <v>1075.120260185286</v>
+        <v>1089.832877645391</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>373.5374302182279</v>
+        <v>245.1280598394563</v>
       </c>
       <c r="C16" t="n">
-        <v>296.7441449375172</v>
+        <v>245.1280598394563</v>
       </c>
       <c r="D16" t="n">
-        <v>236.494936022889</v>
+        <v>245.1280598394563</v>
       </c>
       <c r="E16" t="n">
-        <v>177.3086060418168</v>
+        <v>245.1280598394563</v>
       </c>
       <c r="F16" t="n">
-        <v>117.6506353252029</v>
+        <v>245.1280598394563</v>
       </c>
       <c r="G16" t="n">
-        <v>117.6506353252029</v>
+        <v>169.0309954649153</v>
       </c>
       <c r="H16" t="n">
-        <v>51.10067436208573</v>
+        <v>102.4810345017982</v>
       </c>
       <c r="I16" t="n">
         <v>51.10067436208573</v>
       </c>
       <c r="J16" t="n">
-        <v>83.21408766499903</v>
+        <v>83.21408766499901</v>
       </c>
       <c r="K16" t="n">
         <v>207.793788250525</v>
@@ -5443,10 +5443,10 @@
         <v>399.3763804916671</v>
       </c>
       <c r="M16" t="n">
-        <v>608.3453994601515</v>
+        <v>608.3453994601514</v>
       </c>
       <c r="N16" t="n">
-        <v>817.7432540506345</v>
+        <v>817.7432540506344</v>
       </c>
       <c r="O16" t="n">
         <v>1007.182413387207</v>
@@ -5458,28 +5458,28 @@
         <v>1214.33147454359</v>
       </c>
       <c r="R16" t="n">
-        <v>1157.632377415578</v>
+        <v>1157.632377415577</v>
       </c>
       <c r="S16" t="n">
         <v>1036.745299076874</v>
       </c>
       <c r="T16" t="n">
-        <v>896.3890301501623</v>
+        <v>896.3890301501615</v>
       </c>
       <c r="U16" t="n">
-        <v>896.3890301501623</v>
+        <v>702.0214748968706</v>
       </c>
       <c r="V16" t="n">
-        <v>728.476409966194</v>
+        <v>534.1088547129019</v>
       </c>
       <c r="W16" t="n">
-        <v>728.476409966194</v>
+        <v>340.77513748791</v>
       </c>
       <c r="X16" t="n">
-        <v>590.0466301191788</v>
+        <v>335.8607442662271</v>
       </c>
       <c r="Y16" t="n">
-        <v>464.2701146449987</v>
+        <v>335.8607442662271</v>
       </c>
     </row>
     <row r="17">
@@ -5513,25 +5513,25 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J17" t="n">
-        <v>163.2749745479472</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K17" t="n">
-        <v>403.41534659273</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L17" t="n">
-        <v>915.7684941687086</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M17" t="n">
-        <v>1473.475434912829</v>
+        <v>1268.831904508741</v>
       </c>
       <c r="N17" t="n">
-        <v>1851.806793600545</v>
+        <v>1647.163263196456</v>
       </c>
       <c r="O17" t="n">
-        <v>2156.811378073378</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P17" t="n">
-        <v>2384.968274529432</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q17" t="n">
         <v>2479.400528215969</v>
@@ -5546,10 +5546,10 @@
         <v>2479.060069480717</v>
       </c>
       <c r="U17" t="n">
-        <v>2391.981869702242</v>
+        <v>2391.981869702243</v>
       </c>
       <c r="V17" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W17" t="n">
         <v>2028.08193847085</v>
@@ -5558,7 +5558,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y17" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="18">
@@ -5592,13 +5592,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J18" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K18" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L18" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M18" t="n">
         <v>1191.700572135723</v>
@@ -5616,7 +5616,7 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R18" t="n">
-        <v>2495.249449199232</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S18" t="n">
         <v>2357.162579672078</v>
@@ -5671,25 +5671,25 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J19" t="n">
-        <v>51.10067436208574</v>
+        <v>97.31943502373917</v>
       </c>
       <c r="K19" t="n">
-        <v>84.70486210672915</v>
+        <v>130.9236227683826</v>
       </c>
       <c r="L19" t="n">
-        <v>185.3119415069887</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M19" t="n">
-        <v>303.3054476345904</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N19" t="n">
-        <v>421.7277893841908</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O19" t="n">
-        <v>520.1914358798805</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P19" t="n">
-        <v>583.1599196080183</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q19" t="n">
         <v>629.3786802696717</v>
@@ -5753,16 +5753,16 @@
         <v>287.5669931259238</v>
       </c>
       <c r="K20" t="n">
-        <v>527.7073651707066</v>
+        <v>692.175139661739</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.060512746685</v>
+        <v>1080.236268659741</v>
       </c>
       <c r="M20" t="n">
-        <v>1433.299678999773</v>
+        <v>1473.475434912829</v>
       </c>
       <c r="N20" t="n">
-        <v>1811.631037687489</v>
+        <v>1851.806793600545</v>
       </c>
       <c r="O20" t="n">
         <v>2156.811378073378</v>
@@ -5792,7 +5792,7 @@
         <v>2028.08193847085</v>
       </c>
       <c r="X20" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y20" t="n">
         <v>1588.124215583246</v>
@@ -5829,13 +5829,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J21" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K21" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L21" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M21" t="n">
         <v>1191.700572135723</v>
@@ -5853,7 +5853,7 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R21" t="n">
-        <v>2495.249449199232</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S21" t="n">
         <v>2357.162579672078</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.90950739287318</v>
+        <v>54.02211951749091</v>
       </c>
       <c r="C22" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="D22" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="E22" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="F22" t="n">
+        <v>52.21328648670347</v>
+      </c>
+      <c r="G22" t="n">
         <v>51.10067436208574</v>
       </c>
-      <c r="D22" t="n">
-        <v>65.54268635500837</v>
-      </c>
-      <c r="E22" t="n">
-        <v>65.54268635500837</v>
-      </c>
-      <c r="F22" t="n">
-        <v>80.5641709058049</v>
-      </c>
-      <c r="G22" t="n">
-        <v>79.45155878118717</v>
-      </c>
       <c r="H22" t="n">
-        <v>87.71820369138582</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I22" t="n">
-        <v>87.71820369138582</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J22" t="n">
-        <v>87.71820369138582</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K22" t="n">
-        <v>121.3223914360292</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L22" t="n">
-        <v>221.9294708362887</v>
+        <v>231.5307021686421</v>
       </c>
       <c r="M22" t="n">
-        <v>339.9229769638904</v>
+        <v>349.5242082962438</v>
       </c>
       <c r="N22" t="n">
-        <v>458.3453187134908</v>
+        <v>467.9465500458442</v>
       </c>
       <c r="O22" t="n">
-        <v>556.8089652091805</v>
+        <v>566.4101965415339</v>
       </c>
       <c r="P22" t="n">
-        <v>619.7774489373184</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="Q22" t="n">
-        <v>619.7774489373184</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="R22" t="n">
-        <v>628.266068145054</v>
+        <v>629.3786802696717</v>
       </c>
       <c r="S22" t="n">
-        <v>582.3634420562738</v>
+        <v>583.4760541808915</v>
       </c>
       <c r="T22" t="n">
-        <v>516.991625379485</v>
+        <v>518.1042375041027</v>
       </c>
       <c r="U22" t="n">
-        <v>397.6085223761172</v>
+        <v>398.7211345007349</v>
       </c>
       <c r="V22" t="n">
-        <v>304.680354442072</v>
+        <v>305.7929665666898</v>
       </c>
       <c r="W22" t="n">
-        <v>186.3310894670034</v>
+        <v>187.4437015916211</v>
       </c>
       <c r="X22" t="n">
-        <v>122.8857618699114</v>
+        <v>123.9983739945291</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.65773956972075</v>
+        <v>69.77035169433847</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5987,25 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J23" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K23" t="n">
-        <v>692.175139661739</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.060512746685</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M23" t="n">
-        <v>1433.299678999773</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N23" t="n">
-        <v>1811.631037687489</v>
+        <v>1482.695488705424</v>
       </c>
       <c r="O23" t="n">
-        <v>2116.635622160323</v>
+        <v>1827.875829091314</v>
       </c>
       <c r="P23" t="n">
-        <v>2344.792518616376</v>
+        <v>2220.5005000384</v>
       </c>
       <c r="Q23" t="n">
         <v>2479.400528215969</v>
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C24" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D24" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E24" t="n">
         <v>482.8431151521678</v>
@@ -6066,13 +6066,13 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J24" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K24" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L24" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M24" t="n">
         <v>1191.700572135723</v>
@@ -6096,22 +6096,22 @@
         <v>2342.449962211973</v>
       </c>
       <c r="T24" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U24" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V24" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W24" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X24" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y24" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C25" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D25" t="n">
-        <v>52.21328648670347</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="E25" t="n">
-        <v>52.21328648670347</v>
+        <v>81.02642599070934</v>
       </c>
       <c r="F25" t="n">
-        <v>52.21328648670347</v>
+        <v>96.04791054150587</v>
       </c>
       <c r="G25" t="n">
-        <v>51.10067436208574</v>
+        <v>94.93529841688814</v>
       </c>
       <c r="H25" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="I25" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="J25" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="K25" t="n">
-        <v>84.70486210672915</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L25" t="n">
-        <v>185.3119415069887</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M25" t="n">
-        <v>303.3054476345904</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N25" t="n">
-        <v>421.7277893841908</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O25" t="n">
-        <v>520.1914358798805</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P25" t="n">
-        <v>583.1599196080183</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q25" t="n">
-        <v>611.4572037146872</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R25" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S25" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T25" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U25" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V25" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W25" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X25" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1638.39869009398</v>
+        <v>1638.398690093979</v>
       </c>
       <c r="C26" t="n">
         <v>1386.425607044543</v>
@@ -6209,19 +6209,19 @@
         <v>1143.562317889523</v>
       </c>
       <c r="E26" t="n">
-        <v>878.7372736133858</v>
+        <v>878.737273613386</v>
       </c>
       <c r="F26" t="n">
-        <v>594.5467585413123</v>
+        <v>594.5467585413126</v>
       </c>
       <c r="G26" t="n">
-        <v>308.4034476132565</v>
+        <v>308.4034476132567</v>
       </c>
       <c r="H26" t="n">
         <v>105.5428488283221</v>
       </c>
       <c r="I26" t="n">
-        <v>62.68632565487432</v>
+        <v>62.68632565487431</v>
       </c>
       <c r="J26" t="n">
         <v>262.0593281006429</v>
@@ -6236,40 +6236,40 @@
         <v>1625.447614002348</v>
       </c>
       <c r="N26" t="n">
-        <v>2131.153430863027</v>
+        <v>2086.059300039154</v>
       </c>
       <c r="O26" t="n">
-        <v>2563.532473508824</v>
+        <v>2518.43834268495</v>
       </c>
       <c r="P26" t="n">
-        <v>2919.06382813784</v>
+        <v>2873.969697313967</v>
       </c>
       <c r="Q26" t="n">
         <v>3095.776409173467</v>
       </c>
       <c r="R26" t="n">
-        <v>3134.316282743716</v>
+        <v>3134.316282743715</v>
       </c>
       <c r="S26" t="n">
         <v>3077.047982991826</v>
       </c>
       <c r="T26" t="n">
-        <v>2982.649712340594</v>
+        <v>2982.649712340593</v>
       </c>
       <c r="U26" t="n">
-        <v>2857.725051672344</v>
+        <v>2857.725051672343</v>
       </c>
       <c r="V26" t="n">
-        <v>2650.706453186042</v>
+        <v>2650.706453186041</v>
       </c>
       <c r="W26" t="n">
-        <v>2418.132198661399</v>
+        <v>2418.132198661398</v>
       </c>
       <c r="X26" t="n">
-        <v>2166.062733800649</v>
+        <v>2166.062733800648</v>
       </c>
       <c r="Y26" t="n">
-        <v>1902.481553994243</v>
+        <v>1902.481553994242</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>131.0686109648133</v>
       </c>
       <c r="I27" t="n">
-        <v>62.68632565487432</v>
+        <v>62.68632565487431</v>
       </c>
       <c r="J27" t="n">
-        <v>122.9404721879805</v>
+        <v>122.9404721879804</v>
       </c>
       <c r="K27" t="n">
         <v>352.4310247481691</v>
       </c>
       <c r="L27" t="n">
-        <v>718.2528699182848</v>
+        <v>718.2528699182847</v>
       </c>
       <c r="M27" t="n">
         <v>1203.286223428511</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>252.6345665042394</v>
+        <v>252.6345665042392</v>
       </c>
       <c r="C28" t="n">
-        <v>212.9792725836759</v>
+        <v>212.9792725836757</v>
       </c>
       <c r="D28" t="n">
-        <v>189.8680550291949</v>
+        <v>189.8680550291947</v>
       </c>
       <c r="E28" t="n">
-        <v>167.8197164082699</v>
+        <v>167.8197164082698</v>
       </c>
       <c r="F28" t="n">
-        <v>145.2997370518033</v>
+        <v>145.2997370518032</v>
       </c>
       <c r="G28" t="n">
         <v>106.3406640374095</v>
       </c>
       <c r="H28" t="n">
-        <v>76.92869443443956</v>
+        <v>76.92869443443954</v>
       </c>
       <c r="I28" t="n">
-        <v>62.68632565487432</v>
+        <v>62.68632565487431</v>
       </c>
       <c r="J28" t="n">
         <v>131.1986842898679</v>
@@ -6388,16 +6388,16 @@
         <v>164.8028720345113</v>
       </c>
       <c r="L28" t="n">
-        <v>392.7844096077337</v>
+        <v>280.7485576031319</v>
       </c>
       <c r="M28" t="n">
-        <v>638.1523739082983</v>
+        <v>398.7420637307336</v>
       </c>
       <c r="N28" t="n">
-        <v>756.5747156578987</v>
+        <v>644.5388636532969</v>
       </c>
       <c r="O28" t="n">
-        <v>870.3769683219498</v>
+        <v>870.3769683219494</v>
       </c>
       <c r="P28" t="n">
         <v>1060.71991022305</v>
@@ -6406,28 +6406,28 @@
         <v>1150.323920142494</v>
       </c>
       <c r="R28" t="n">
-        <v>1130.762814374629</v>
+        <v>1130.762814374628</v>
       </c>
       <c r="S28" t="n">
         <v>1047.013727396072</v>
       </c>
       <c r="T28" t="n">
-        <v>943.7954498295073</v>
+        <v>943.7954498295071</v>
       </c>
       <c r="U28" t="n">
-        <v>786.5658859363634</v>
+        <v>786.5658859363632</v>
       </c>
       <c r="V28" t="n">
-        <v>655.7912571125423</v>
+        <v>655.7912571125421</v>
       </c>
       <c r="W28" t="n">
-        <v>499.5955312476977</v>
+        <v>499.5955312476974</v>
       </c>
       <c r="X28" t="n">
-        <v>398.3037427608297</v>
+        <v>398.3037427608294</v>
       </c>
       <c r="Y28" t="n">
-        <v>306.229259570863</v>
+        <v>306.2292595708628</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1638.398690093979</v>
+        <v>1638.39869009398</v>
       </c>
       <c r="C29" t="n">
-        <v>1386.425607044543</v>
+        <v>1386.425607044544</v>
       </c>
       <c r="D29" t="n">
         <v>1143.562317889523</v>
       </c>
       <c r="E29" t="n">
-        <v>878.7372736133856</v>
+        <v>878.7372736133863</v>
       </c>
       <c r="F29" t="n">
-        <v>594.5467585413121</v>
+        <v>594.5467585413128</v>
       </c>
       <c r="G29" t="n">
-        <v>308.4034476132563</v>
+        <v>308.403447613257</v>
       </c>
       <c r="H29" t="n">
         <v>105.5428488283221</v>
       </c>
       <c r="I29" t="n">
-        <v>62.68632565487432</v>
+        <v>62.68632565487433</v>
       </c>
       <c r="J29" t="n">
         <v>262.0593281006429</v>
@@ -6470,43 +6470,43 @@
         <v>1104.833989576298</v>
       </c>
       <c r="M29" t="n">
-        <v>1580.353483178475</v>
+        <v>1625.447614002348</v>
       </c>
       <c r="N29" t="n">
-        <v>2086.059300039154</v>
+        <v>2086.059300039155</v>
       </c>
       <c r="O29" t="n">
         <v>2518.438342684951</v>
       </c>
       <c r="P29" t="n">
-        <v>2873.969697313967</v>
+        <v>2873.969697313968</v>
       </c>
       <c r="Q29" t="n">
-        <v>3095.776409173467</v>
+        <v>3095.776409173468</v>
       </c>
       <c r="R29" t="n">
         <v>3134.316282743716</v>
       </c>
       <c r="S29" t="n">
-        <v>3077.047982991826</v>
+        <v>3077.047982991827</v>
       </c>
       <c r="T29" t="n">
-        <v>2982.649712340593</v>
+        <v>2982.649712340594</v>
       </c>
       <c r="U29" t="n">
-        <v>2857.725051672343</v>
+        <v>2857.725051672344</v>
       </c>
       <c r="V29" t="n">
-        <v>2650.706453186041</v>
+        <v>2650.706453186042</v>
       </c>
       <c r="W29" t="n">
-        <v>2418.132198661398</v>
+        <v>2418.132198661399</v>
       </c>
       <c r="X29" t="n">
-        <v>2166.062733800648</v>
+        <v>2166.062733800649</v>
       </c>
       <c r="Y29" t="n">
-        <v>1902.481553994242</v>
+        <v>1902.481553994243</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>131.0686109648133</v>
       </c>
       <c r="I30" t="n">
-        <v>62.68632565487432</v>
+        <v>62.68632565487433</v>
       </c>
       <c r="J30" t="n">
         <v>122.9404721879805</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>252.6345665042394</v>
+        <v>252.6345665042392</v>
       </c>
       <c r="C31" t="n">
-        <v>212.9792725836759</v>
+        <v>212.9792725836758</v>
       </c>
       <c r="D31" t="n">
-        <v>189.8680550291949</v>
+        <v>189.8680550291947</v>
       </c>
       <c r="E31" t="n">
-        <v>167.8197164082699</v>
+        <v>167.8197164082698</v>
       </c>
       <c r="F31" t="n">
-        <v>145.2997370518033</v>
+        <v>145.2997370518032</v>
       </c>
       <c r="G31" t="n">
         <v>106.3406640374095</v>
       </c>
       <c r="H31" t="n">
-        <v>76.92869443443956</v>
+        <v>76.92869443443955</v>
       </c>
       <c r="I31" t="n">
-        <v>62.68632565487432</v>
+        <v>62.68632565487433</v>
       </c>
       <c r="J31" t="n">
         <v>131.1986842898679</v>
       </c>
       <c r="K31" t="n">
-        <v>292.1773302074741</v>
+        <v>164.8028720345113</v>
       </c>
       <c r="L31" t="n">
-        <v>520.1588677806965</v>
+        <v>265.4099514347708</v>
       </c>
       <c r="M31" t="n">
-        <v>765.5268320812611</v>
+        <v>510.7779157353355</v>
       </c>
       <c r="N31" t="n">
-        <v>899.2877799992229</v>
+        <v>756.5747156578987</v>
       </c>
       <c r="O31" t="n">
-        <v>997.7514264949126</v>
+        <v>870.3769683219494</v>
       </c>
       <c r="P31" t="n">
         <v>1060.71991022305</v>
@@ -6643,28 +6643,28 @@
         <v>1150.323920142494</v>
       </c>
       <c r="R31" t="n">
-        <v>1130.762814374629</v>
+        <v>1130.762814374628</v>
       </c>
       <c r="S31" t="n">
         <v>1047.013727396072</v>
       </c>
       <c r="T31" t="n">
-        <v>943.7954498295073</v>
+        <v>943.7954498295071</v>
       </c>
       <c r="U31" t="n">
-        <v>786.5658859363634</v>
+        <v>786.5658859363632</v>
       </c>
       <c r="V31" t="n">
-        <v>655.7912571125423</v>
+        <v>655.7912571125421</v>
       </c>
       <c r="W31" t="n">
-        <v>499.5955312476977</v>
+        <v>499.5955312476974</v>
       </c>
       <c r="X31" t="n">
-        <v>398.3037427608297</v>
+        <v>398.3037427608294</v>
       </c>
       <c r="Y31" t="n">
-        <v>306.229259570863</v>
+        <v>306.2292595708628</v>
       </c>
     </row>
     <row r="32">
@@ -6701,19 +6701,19 @@
         <v>267.5838060976603</v>
       </c>
       <c r="K32" t="n">
-        <v>538.190567898858</v>
+        <v>643.1323473443256</v>
       </c>
       <c r="L32" t="n">
-        <v>886.0759409838042</v>
+        <v>1126.425889631154</v>
       </c>
       <c r="M32" t="n">
-        <v>1414.723276438775</v>
+        <v>1655.073225086124</v>
       </c>
       <c r="N32" t="n">
-        <v>1928.462804328373</v>
+        <v>2168.812752975723</v>
       </c>
       <c r="O32" t="n">
-        <v>2368.875558003089</v>
+        <v>2504.283727204971</v>
       </c>
       <c r="P32" t="n">
         <v>2732.440623661025</v>
@@ -6859,7 +6859,7 @@
         <v>136.7231622868854</v>
       </c>
       <c r="K34" t="n">
-        <v>305.7355192334112</v>
+        <v>170.3273500315288</v>
       </c>
       <c r="L34" t="n">
         <v>406.3425986336707</v>
@@ -6871,10 +6871,10 @@
         <v>642.7584465108728</v>
       </c>
       <c r="O34" t="n">
-        <v>876.6302622084449</v>
+        <v>856.0592359666769</v>
       </c>
       <c r="P34" t="n">
-        <v>939.5987459365828</v>
+        <v>919.0277196948147</v>
       </c>
       <c r="Q34" t="n">
         <v>1016.665440643178</v>
@@ -6917,10 +6917,10 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D35" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478541</v>
       </c>
       <c r="E35" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614932</v>
       </c>
       <c r="F35" t="n">
         <v>469.4217245791957</v>
@@ -6932,10 +6932,10 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J35" t="n">
-        <v>163.2749745479474</v>
+        <v>287.5669931259238</v>
       </c>
       <c r="K35" t="n">
         <v>567.8831210837625</v>
@@ -6947,13 +6947,13 @@
         <v>1309.007660421797</v>
       </c>
       <c r="N35" t="n">
-        <v>1687.339019109512</v>
+        <v>1851.806793600545</v>
       </c>
       <c r="O35" t="n">
-        <v>1992.343603582346</v>
+        <v>2156.811378073378</v>
       </c>
       <c r="P35" t="n">
-        <v>2220.500500038399</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q35" t="n">
         <v>2479.400528215969</v>
@@ -7011,13 +7011,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K36" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L36" t="n">
         <v>706.6672186254962</v>
@@ -7038,10 +7038,10 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S36" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T36" t="n">
         <v>2168.477475838063</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D37" t="n">
-        <v>52.21328648670345</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="E37" t="n">
-        <v>52.21328648670345</v>
+        <v>81.02642599070934</v>
       </c>
       <c r="F37" t="n">
-        <v>52.21328648670345</v>
+        <v>96.04791054150587</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208573</v>
+        <v>94.93529841688814</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208573</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="I37" t="n">
-        <v>51.10067436208573</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="J37" t="n">
-        <v>51.10067436208573</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="K37" t="n">
-        <v>84.70486210672914</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L37" t="n">
-        <v>185.3119415069887</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M37" t="n">
-        <v>303.3054476345904</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N37" t="n">
-        <v>421.7277893841908</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O37" t="n">
-        <v>520.1914358798805</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P37" t="n">
-        <v>583.1599196080183</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q37" t="n">
-        <v>611.4572037146872</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S37" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T37" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U37" t="n">
-        <v>398.7211345007348</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666896</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W37" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X37" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="38">
@@ -7169,7 +7169,7 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J38" t="n">
         <v>123.0992186348914</v>
@@ -7178,19 +7178,19 @@
         <v>363.2395906796742</v>
       </c>
       <c r="L38" t="n">
-        <v>711.1249637646204</v>
+        <v>875.5927382556528</v>
       </c>
       <c r="M38" t="n">
-        <v>1104.364130017708</v>
+        <v>1309.007660421797</v>
       </c>
       <c r="N38" t="n">
-        <v>1482.695488705424</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O38" t="n">
-        <v>1827.875829091314</v>
+        <v>1992.343603582346</v>
       </c>
       <c r="P38" t="n">
-        <v>2220.500500038399</v>
+        <v>2384.968274529432</v>
       </c>
       <c r="Q38" t="n">
         <v>2479.400528215969</v>
@@ -7248,13 +7248,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L39" t="n">
         <v>706.6672186254962</v>
@@ -7275,22 +7275,22 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2495.249449199233</v>
+        <v>2509.962066659337</v>
       </c>
       <c r="S39" t="n">
-        <v>2342.449962211973</v>
+        <v>2357.162579672078</v>
       </c>
       <c r="T39" t="n">
-        <v>2153.764858377959</v>
+        <v>2168.477475838063</v>
       </c>
       <c r="U39" t="n">
-        <v>1935.270065976269</v>
+        <v>1949.982683436373</v>
       </c>
       <c r="V39" t="n">
-        <v>1706.874443424603</v>
+        <v>1721.587060884707</v>
       </c>
       <c r="W39" t="n">
-        <v>1465.558574657913</v>
+        <v>1480.271192118017</v>
       </c>
       <c r="X39" t="n">
         <v>1282.354203995812</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670347</v>
+        <v>66.5844139977867</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670347</v>
+        <v>81.60589854858323</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208574</v>
+        <v>80.4932864239655</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208574</v>
+        <v>88.75993133416415</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="K40" t="n">
-        <v>84.70486210672915</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L40" t="n">
-        <v>185.3119415069887</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M40" t="n">
-        <v>303.3054476345904</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N40" t="n">
-        <v>421.7277893841908</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O40" t="n">
-        <v>520.1914358798805</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P40" t="n">
-        <v>583.1599196080183</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>611.4572037146872</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007349</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666898</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W40" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="41">
@@ -7409,25 +7409,25 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>567.8831210837624</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L41" t="n">
-        <v>1080.236268659741</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M41" t="n">
-        <v>1473.475434912829</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N41" t="n">
-        <v>1851.806793600545</v>
+        <v>1482.695488705424</v>
       </c>
       <c r="O41" t="n">
-        <v>2156.811378073378</v>
+        <v>1952.16784766929</v>
       </c>
       <c r="P41" t="n">
-        <v>2384.968274529432</v>
+        <v>2344.792518616376</v>
       </c>
       <c r="Q41" t="n">
         <v>2479.400528215969</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G42" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H42" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I42" t="n">
         <v>51.10067436208574</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S42" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W42" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C43" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D43" t="n">
-        <v>52.21328648670347</v>
+        <v>65.54268635500837</v>
       </c>
       <c r="E43" t="n">
-        <v>52.21328648670347</v>
+        <v>81.02642599070934</v>
       </c>
       <c r="F43" t="n">
-        <v>52.21328648670347</v>
+        <v>96.04791054150587</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208574</v>
+        <v>94.93529841688814</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208574</v>
+        <v>96.20682289912145</v>
       </c>
       <c r="K43" t="n">
-        <v>84.70486210672915</v>
+        <v>129.8110106437649</v>
       </c>
       <c r="L43" t="n">
-        <v>185.3119415069887</v>
+        <v>230.4180900440244</v>
       </c>
       <c r="M43" t="n">
-        <v>303.3054476345904</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N43" t="n">
-        <v>421.7277893841908</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O43" t="n">
-        <v>520.1914358798805</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P43" t="n">
-        <v>583.1599196080183</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q43" t="n">
-        <v>611.4572037146872</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R43" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S43" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T43" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U43" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V43" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W43" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X43" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y43" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="44">
@@ -7628,43 +7628,43 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D44" t="n">
-        <v>942.744362147854</v>
+        <v>942.7443621478542</v>
       </c>
       <c r="E44" t="n">
-        <v>715.765778761493</v>
+        <v>715.7657787614933</v>
       </c>
       <c r="F44" t="n">
-        <v>469.4217245791957</v>
+        <v>469.4217245791958</v>
       </c>
       <c r="G44" t="n">
-        <v>221.1248745409159</v>
+        <v>221.124874540916</v>
       </c>
       <c r="H44" t="n">
-        <v>56.11073664575746</v>
+        <v>56.11073664575749</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J44" t="n">
-        <v>123.0992186348914</v>
+        <v>287.5669931259237</v>
       </c>
       <c r="K44" t="n">
-        <v>403.4153465927299</v>
+        <v>567.8831210837625</v>
       </c>
       <c r="L44" t="n">
-        <v>751.3007196776762</v>
+        <v>915.7684941687087</v>
       </c>
       <c r="M44" t="n">
-        <v>1144.539885930764</v>
+        <v>1309.007660421797</v>
       </c>
       <c r="N44" t="n">
-        <v>1522.87124461848</v>
+        <v>1687.339019109512</v>
       </c>
       <c r="O44" t="n">
         <v>1992.343603582346</v>
       </c>
       <c r="P44" t="n">
-        <v>2384.968274529432</v>
+        <v>2220.500500038399</v>
       </c>
       <c r="Q44" t="n">
         <v>2479.400528215969</v>
@@ -7691,7 +7691,7 @@
         <v>1813.858934499875</v>
       </c>
       <c r="Y44" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="45">
@@ -7722,13 +7722,13 @@
         <v>119.4829596720247</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J45" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L45" t="n">
         <v>706.6672186254962</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.02211951749089</v>
+        <v>54.02211951749096</v>
       </c>
       <c r="C46" t="n">
-        <v>52.21328648670345</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="D46" t="n">
-        <v>52.21328648670345</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="E46" t="n">
-        <v>52.21328648670345</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="F46" t="n">
-        <v>52.21328648670345</v>
+        <v>52.2132864867035</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672914</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L46" t="n">
         <v>185.3119415069887</v>
@@ -7825,31 +7825,31 @@
         <v>583.1599196080183</v>
       </c>
       <c r="Q46" t="n">
-        <v>629.3786802696717</v>
+        <v>629.378680269672</v>
       </c>
       <c r="R46" t="n">
-        <v>629.3786802696717</v>
+        <v>629.378680269672</v>
       </c>
       <c r="S46" t="n">
-        <v>583.4760541808915</v>
+        <v>583.4760541808919</v>
       </c>
       <c r="T46" t="n">
-        <v>518.1042375041027</v>
+        <v>518.1042375041029</v>
       </c>
       <c r="U46" t="n">
-        <v>398.7211345007348</v>
+        <v>398.721134500735</v>
       </c>
       <c r="V46" t="n">
-        <v>305.7929665666896</v>
+        <v>305.7929665666899</v>
       </c>
       <c r="W46" t="n">
-        <v>187.443701591621</v>
+        <v>187.4437015916212</v>
       </c>
       <c r="X46" t="n">
-        <v>123.9983739945291</v>
+        <v>123.9983739945292</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.77035169433844</v>
+        <v>69.77035169433856</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
-        <v>369.9204764532252</v>
+        <v>369.9204764532248</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
@@ -8055,13 +8055,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>482.0924488944969</v>
+        <v>223.8247937300763</v>
       </c>
       <c r="M3" t="n">
         <v>605.4165828749999</v>
@@ -8070,13 +8070,13 @@
         <v>600.6529294339227</v>
       </c>
       <c r="O3" t="n">
-        <v>425.594622489264</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8219,7 +8219,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
-        <v>491.4910190262967</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M5" t="n">
         <v>584.3675935406823</v>
@@ -8228,7 +8228,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
-        <v>495.0402356415689</v>
+        <v>443.5716757522796</v>
       </c>
       <c r="P5" t="n">
         <v>418.3383206229274</v>
@@ -8292,7 +8292,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
         <v>343.8048081163522</v>
@@ -8304,13 +8304,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>506.7382017684543</v>
+        <v>600.6529294339227</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>266.2293398775523</v>
       </c>
       <c r="P6" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q6" t="n">
         <v>273.1004740566038</v>
@@ -8529,7 +8529,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
         <v>343.8048081163522</v>
@@ -8547,7 +8547,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>184.992792701879</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q9" t="n">
         <v>113.7351914448925</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>273.1004740566032</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>318.1152213678985</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>210.9752841701677</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.7150239479851</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>287.3754815900805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.82535758250309</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>76.02535242790357</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>59.64671682548196</v>
+        <v>59.64671682548197</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>58.59446668126142</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>59.06139100944773</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>138.952706237445</v>
       </c>
       <c r="U13" t="n">
-        <v>192.4238797007582</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>95.50720297113905</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>137.0454820485451</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>60.1277467056032</v>
       </c>
     </row>
     <row r="14">
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>318.1152213678984</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>11.07517859903305</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>79.19456938825901</v>
+        <v>79.19456938825903</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>130.220899391266</v>
+        <v>87.95110593104516</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>160.442025508113</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.7150239479851</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>267.0151234259421</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>297.7119794548874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>76.02535242790358</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>59.64671682548197</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>58.59446668126142</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>59.06139100944773</v>
       </c>
       <c r="G16" t="n">
-        <v>75.33609373079555</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>50.86655653831532</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>192.4238797007582</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>191.4003800527419</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>132.1802327590791</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.401599485174458</v>
+        <v>127.9203498046128</v>
       </c>
     </row>
     <row r="17">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1099998.330155094</v>
+        <v>1099998.330155093</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76762.40604941816</v>
+        <v>76762.40604941818</v>
       </c>
       <c r="C2" t="n">
+        <v>76762.40604941818</v>
+      </c>
+      <c r="D2" t="n">
         <v>76762.4060494182</v>
-      </c>
-      <c r="D2" t="n">
-        <v>76762.40604941818</v>
       </c>
       <c r="E2" t="n">
         <v>66666.56546394509</v>
@@ -26335,25 +26335,25 @@
         <v>76762.4060494182</v>
       </c>
       <c r="J2" t="n">
+        <v>76762.40604941813</v>
+      </c>
+      <c r="K2" t="n">
+        <v>76762.40604941813</v>
+      </c>
+      <c r="L2" t="n">
         <v>76762.40604941812</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>76762.40604941818</v>
+      </c>
+      <c r="N2" t="n">
+        <v>76762.40604941816</v>
+      </c>
+      <c r="O2" t="n">
+        <v>76762.4060494182</v>
+      </c>
+      <c r="P2" t="n">
         <v>76762.40604941815</v>
-      </c>
-      <c r="L2" t="n">
-        <v>76762.40604941807</v>
-      </c>
-      <c r="M2" t="n">
-        <v>76762.40604941819</v>
-      </c>
-      <c r="N2" t="n">
-        <v>76762.40604941818</v>
-      </c>
-      <c r="O2" t="n">
-        <v>76762.40604941818</v>
-      </c>
-      <c r="P2" t="n">
-        <v>76762.40604941818</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165529.9134506509</v>
+        <v>165529.9134506508</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9743.038208746741</v>
+        <v>9743.038208746775</v>
       </c>
       <c r="E3" t="n">
         <v>107390.8010757635</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>65879.57388207625</v>
+        <v>65879.57388207623</v>
       </c>
       <c r="M3" t="n">
         <v>23482.5093245656</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>43541.16890732372</v>
+        <v>43541.16890732373</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,10 +26421,10 @@
         <v>194229.03306035</v>
       </c>
       <c r="D4" t="n">
-        <v>185775.7593332932</v>
+        <v>185775.7593332931</v>
       </c>
       <c r="E4" t="n">
-        <v>118181.7253353295</v>
+        <v>118181.7253353294</v>
       </c>
       <c r="F4" t="n">
         <v>118181.7253353294</v>
@@ -26442,7 +26442,7 @@
         <v>176368.812935792</v>
       </c>
       <c r="K4" t="n">
-        <v>176368.812935792</v>
+        <v>176368.8129357921</v>
       </c>
       <c r="L4" t="n">
         <v>176200.8165314007</v>
@@ -26491,7 +26491,7 @@
         <v>52802.81689264637</v>
       </c>
       <c r="J5" t="n">
-        <v>58458.01489582854</v>
+        <v>58458.01489582853</v>
       </c>
       <c r="K5" t="n">
         <v>58458.01489582854</v>
@@ -26525,34 +26525,34 @@
         <v>-181125.6445435977</v>
       </c>
       <c r="D6" t="n">
-        <v>-184322.4261295332</v>
+        <v>-184322.4261295331</v>
       </c>
       <c r="E6" t="n">
-        <v>-205467.9486027574</v>
+        <v>-205720.3446173942</v>
       </c>
       <c r="F6" t="n">
-        <v>-98077.1475269939</v>
+        <v>-98329.54354163069</v>
       </c>
       <c r="G6" t="n">
         <v>-211051.217565403</v>
       </c>
       <c r="H6" t="n">
+        <v>-151663.5313834638</v>
+      </c>
+      <c r="I6" t="n">
         <v>-151663.5313834639</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-151663.5313834638</v>
       </c>
       <c r="J6" t="n">
         <v>-368732.9012244457</v>
       </c>
       <c r="K6" t="n">
-        <v>-158064.4217822024</v>
+        <v>-158064.4217822025</v>
       </c>
       <c r="L6" t="n">
-        <v>-222551.1902894704</v>
+        <v>-222551.1902894703</v>
       </c>
       <c r="M6" t="n">
-        <v>-175146.0407080294</v>
+        <v>-175146.0407080295</v>
       </c>
       <c r="N6" t="n">
         <v>-151663.5313834639</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F2" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="G2" t="n">
         <v>166.1290651424569</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9377883662145</v>
+        <v>493.9377883662144</v>
       </c>
       <c r="C4" t="n">
-        <v>493.9377883662145</v>
+        <v>493.9377883662144</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="F4" t="n">
         <v>638.7584295260716</v>
@@ -26811,25 +26811,25 @@
         <v>638.7584295260717</v>
       </c>
       <c r="J4" t="n">
-        <v>783.579070685929</v>
+        <v>783.5790706859289</v>
       </c>
       <c r="K4" t="n">
-        <v>783.579070685929</v>
+        <v>783.5790706859291</v>
       </c>
       <c r="L4" t="n">
         <v>752.2136577871531</v>
       </c>
       <c r="M4" t="n">
+        <v>638.7584295260717</v>
+      </c>
+      <c r="N4" t="n">
         <v>638.7584295260716</v>
-      </c>
-      <c r="N4" t="n">
-        <v>638.7584295260717</v>
       </c>
       <c r="O4" t="n">
         <v>638.7584295260717</v>
       </c>
       <c r="P4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260717</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>74.23460772742401</v>
+        <v>74.23460772742402</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>54.42646113415465</v>
+        <v>54.42646113415466</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>82.34946735259531</v>
+        <v>82.3494673525953</v>
       </c>
       <c r="M2" t="n">
         <v>29.353136655707</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415465</v>
+        <v>54.42646113415466</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>493.9377883662145</v>
+        <v>493.9377883662144</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>31.36541289877584</v>
+        <v>31.36541289877596</v>
       </c>
       <c r="E4" t="n">
         <v>113.4552282610814</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260715</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.23460772742401</v>
+        <v>74.23460772742402</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.42646113415465</v>
+        <v>54.42646113415466</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>493.9377883662145</v>
+        <v>493.9377883662144</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>31.36541289877584</v>
+        <v>31.36541289877596</v>
       </c>
       <c r="M4" t="n">
         <v>113.4552282610814</v>
@@ -27379,10 +27379,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>390.8378626949542</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>47.72043602212852</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>235.0804925646903</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.5149980619903</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,10 +27512,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>214.717861177308</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>73.23022383480698</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
         <v>230.8471636524779</v>
@@ -27597,13 +27597,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>205.3109313575256</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>239.2057440583809</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>236.9756427402304</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>133.4908189838362</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>129.2255951795439</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>101.8597073339677</v>
       </c>
       <c r="U7" t="n">
-        <v>7.304317225515263</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>35.14130007463983</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -27907,16 +27907,16 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>87.36231301276445</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>11.54186407614162</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
         <v>150.9558484244806</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>101.8597073339676</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="C11" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="D11" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="E11" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F11" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="G11" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="H11" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="I11" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="J11" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="K11" t="n">
-        <v>91.89445741503293</v>
+        <v>79.49647998155578</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="N11" t="n">
-        <v>91.89445741503293</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>79.49647998155564</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="R11" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="S11" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="T11" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="U11" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="V11" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="W11" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="X11" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Y11" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
     </row>
     <row r="12">
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>14.56549128550371</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="C13" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="D13" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="E13" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F13" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="G13" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="H13" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="I13" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="J13" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="K13" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="L13" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="M13" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="N13" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="O13" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="P13" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Q13" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="R13" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="S13" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="T13" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="U13" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="V13" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="W13" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="X13" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
     </row>
     <row r="14">
@@ -28324,37 +28324,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="C14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="D14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="E14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="G14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="H14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="I14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="J14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="K14" t="n">
-        <v>91.89445741503293</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -28363,37 +28363,37 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>79.49647998155586</v>
       </c>
       <c r="P14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Q14" t="n">
-        <v>79.49647998155555</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="R14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="S14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="T14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="U14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="V14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="W14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="X14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Y14" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
     </row>
     <row r="15">
@@ -28418,7 +28418,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>14.56549128550326</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="C16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="D16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="E16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="F16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="G16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="H16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="I16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="J16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="K16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="L16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="M16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="N16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="O16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="P16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Q16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="R16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="S16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="T16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="U16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="V16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="W16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="X16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.89445741503293</v>
+        <v>91.89445741503292</v>
       </c>
     </row>
     <row r="17">
@@ -28585,28 +28585,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J17" t="n">
-        <v>40.58157162934931</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>40.58157162934918</v>
+      </c>
+      <c r="Q17" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="M17" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>166.1290651424569</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S18" t="n">
-        <v>14.56549128550395</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J19" t="n">
-        <v>59.456666199969</v>
+        <v>106.142283029922</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.83758476280077</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
         <v>148.0265635717656</v>
@@ -28825,10 +28825,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="L20" t="n">
-        <v>166.1290651424569</v>
+        <v>40.5815716293493</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28837,7 +28837,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>40.58157162934918</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>14.5654912855036</v>
       </c>
       <c r="S21" t="n">
-        <v>14.56549128550395</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28962,19 +28962,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D22" t="n">
-        <v>166.1290651424569</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>166.1290651424569</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H22" t="n">
-        <v>166.1290651424569</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I22" t="n">
         <v>142.7610139533483</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>46.68561682995301</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>156.6009264078621</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
         <v>166.1290651424569</v>
@@ -29059,28 +29059,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>40.58157162934987</v>
+      </c>
+      <c r="P23" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K23" t="n">
+      <c r="Q23" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>40.58157162934955</v>
       </c>
       <c r="R23" t="n">
         <v>166.1290651424569</v>
@@ -29123,7 +29123,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>14.56549128550375</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -29168,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>14.56549128550398</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29199,19 +29199,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G25" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H25" t="n">
-        <v>157.7789187685189</v>
+        <v>159.0632869323909</v>
       </c>
       <c r="I25" t="n">
         <v>142.7610139533483</v>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.73508319210941</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
         <v>166.1290651424569</v>
@@ -29308,7 +29308,7 @@
         <v>128.6610688615787</v>
       </c>
       <c r="N26" t="n">
-        <v>128.6610688615787</v>
+        <v>83.11144176675703</v>
       </c>
       <c r="O26" t="n">
         <v>128.6610688615787</v>
@@ -29317,7 +29317,7 @@
         <v>128.6610688615787</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.11144176675754</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="R26" t="n">
         <v>128.6610688615787</v>
@@ -29460,16 +29460,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
+        <v>15.49354158420307</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>128.6610688615787</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28" t="n">
         <v>128.6610688615787</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>15.4935415842035</v>
       </c>
       <c r="P28" t="n">
         <v>128.6610688615787</v>
@@ -29542,10 +29542,10 @@
         <v>128.6610688615787</v>
       </c>
       <c r="M29" t="n">
-        <v>83.11144176675742</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="N29" t="n">
-        <v>128.6610688615787</v>
+        <v>83.11144176675793</v>
       </c>
       <c r="O29" t="n">
         <v>128.6610688615787</v>
@@ -29694,22 +29694,22 @@
         <v>128.6610688615787</v>
       </c>
       <c r="K31" t="n">
-        <v>128.6610688615787</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>128.6610688615787</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>128.6610688615787</v>
       </c>
       <c r="N31" t="n">
-        <v>15.49354158420353</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>15.49354158420314</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>128.6610688615787</v>
       </c>
       <c r="Q31" t="n">
         <v>128.6610688615787</v>
@@ -29773,10 +29773,10 @@
         <v>136.7759284867499</v>
       </c>
       <c r="K32" t="n">
-        <v>30.77413106708579</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>136.7759284867499</v>
       </c>
       <c r="M32" t="n">
         <v>136.7759284867499</v>
@@ -29785,10 +29785,10 @@
         <v>136.7759284867499</v>
       </c>
       <c r="O32" t="n">
-        <v>136.7759284867499</v>
+        <v>30.77413106708582</v>
       </c>
       <c r="P32" t="n">
-        <v>136.7759284867499</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>136.7759284867499</v>
@@ -29931,11 +29931,11 @@
         <v>136.7759284867499</v>
       </c>
       <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>136.7759284867499</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
@@ -29943,13 +29943,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
+        <v>115.9971141011256</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>136.7759284867499</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>115.9971141011256</v>
       </c>
       <c r="R34" t="n">
         <v>136.7759284867499</v>
@@ -30007,20 +30007,20 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
-        <v>40.58157162934947</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K35" t="n">
+        <v>40.58157162934944</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
@@ -30028,7 +30028,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>166.1290651424569</v>
@@ -30110,13 +30110,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30147,19 +30147,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G37" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H37" t="n">
-        <v>157.7789187685189</v>
+        <v>159.0632869323909</v>
       </c>
       <c r="I37" t="n">
         <v>142.7610139533483</v>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.73508319210941</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
         <v>166.1290651424569</v>
@@ -30250,22 +30250,22 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>40.58157162934936</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>40.58157162934941</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="Q38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>166.1290651424569</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>14.56549128550315</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30365,7 +30365,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>14.56549128550344</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30387,19 +30387,19 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H40" t="n">
-        <v>157.7789187685189</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7610139533483</v>
+        <v>150.2831266452243</v>
       </c>
       <c r="J40" t="n">
         <v>59.456666199969</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.73508319210941</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S40" t="n">
         <v>166.1290651424569</v>
@@ -30481,28 +30481,28 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K41" t="n">
-        <v>40.58157162934933</v>
-      </c>
-      <c r="L41" t="n">
+      <c r="P41" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>40.58157162934955</v>
       </c>
       <c r="R41" t="n">
         <v>166.1290651424569</v>
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30621,19 +30621,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="G43" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7789187685189</v>
+        <v>159.0632869323909</v>
       </c>
       <c r="I43" t="n">
         <v>142.7610139533483</v>
@@ -30660,10 +30660,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>66.73508319210941</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
         <v>166.1290651424569</v>
@@ -30718,10 +30718,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="K44" t="n">
-        <v>40.58157162934921</v>
+        <v>40.5815716293495</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -30733,13 +30733,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>166.1290651424569</v>
-      </c>
-      <c r="P44" t="n">
-        <v>166.1290651424569</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>166.1290651424569</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.83758476280077</v>
+        <v>84.83758476280113</v>
       </c>
       <c r="R46" t="n">
         <v>148.0265635717656</v>
@@ -34699,7 +34699,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>191.0974724791785</v>
+        <v>191.0974724791781</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>369.5170153233491</v>
+        <v>111.2493601589285</v>
       </c>
       <c r="M3" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>493.9377883662145</v>
+        <v>493.9377883662144</v>
       </c>
       <c r="O3" t="n">
-        <v>309.7351738781529</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,7 +34939,7 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
-        <v>299.9308068631821</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M5" t="n">
         <v>397.2112790435232</v>
@@ -34948,7 +34948,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
-        <v>308.0854388614484</v>
+        <v>256.6168789721592</v>
       </c>
       <c r="P5" t="n">
         <v>230.4615115717709</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
         <v>231.8086389496855</v>
@@ -35024,13 +35024,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>400.023060700746</v>
+        <v>493.9377883662144</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>150.3698912664412</v>
       </c>
       <c r="P6" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>159.3652826117113</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
         <v>231.8086389496855</v>
@@ -35267,7 +35267,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>76.13858667773572</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,19 +35410,19 @@
         <v>164.6202597107962</v>
       </c>
       <c r="K11" t="n">
-        <v>334.4604897835003</v>
+        <v>322.0625123500232</v>
       </c>
       <c r="L11" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
-        <v>397.2112790435232</v>
+        <v>489.1057364585561</v>
       </c>
       <c r="N11" t="n">
-        <v>474.0473449783822</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
-        <v>387.5819188430041</v>
+        <v>399.9798962764813</v>
       </c>
       <c r="P11" t="n">
         <v>230.4615115717709</v>
@@ -35431,7 +35431,7 @@
         <v>187.2805722499188</v>
       </c>
       <c r="R11" t="n">
-        <v>2.162553775927748</v>
+        <v>2.162553775927734</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K12" t="n">
         <v>231.8086389496855</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>32.43779121506393</v>
+        <v>32.43779121506392</v>
       </c>
       <c r="K13" t="n">
         <v>125.8380813995212</v>
@@ -35574,19 +35574,19 @@
         <v>193.5177699405476</v>
       </c>
       <c r="M13" t="n">
-        <v>211.0798171398832</v>
+        <v>211.0798171398831</v>
       </c>
       <c r="N13" t="n">
         <v>211.5129844348313</v>
       </c>
       <c r="O13" t="n">
-        <v>191.3526861985579</v>
+        <v>191.3526861985578</v>
       </c>
       <c r="P13" t="n">
         <v>155.4989864333539</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.74248948218508</v>
+        <v>53.74248948218506</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>164.6202597107962</v>
       </c>
       <c r="K14" t="n">
-        <v>334.4604897835003</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
         <v>443.2938241675039</v>
@@ -35659,16 +35659,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
-        <v>308.0854388614484</v>
+        <v>387.5819188430043</v>
       </c>
       <c r="P14" t="n">
         <v>322.3559689868039</v>
       </c>
       <c r="Q14" t="n">
-        <v>174.8825948164414</v>
+        <v>187.2805722499188</v>
       </c>
       <c r="R14" t="n">
-        <v>2.162553775927748</v>
+        <v>2.162553775927734</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.43779121506393</v>
+        <v>32.43779121506392</v>
       </c>
       <c r="K16" t="n">
         <v>125.8380813995212</v>
@@ -35811,19 +35811,19 @@
         <v>193.5177699405476</v>
       </c>
       <c r="M16" t="n">
-        <v>211.0798171398832</v>
+        <v>211.0798171398831</v>
       </c>
       <c r="N16" t="n">
         <v>211.5129844348313</v>
       </c>
       <c r="O16" t="n">
-        <v>191.3526861985579</v>
+        <v>191.3526861985578</v>
       </c>
       <c r="P16" t="n">
         <v>155.4989864333539</v>
       </c>
       <c r="Q16" t="n">
-        <v>53.74248948218508</v>
+        <v>53.74248948218506</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>113.3073739251126</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K17" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>563.3403441859801</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
         <v>382.1528875633492</v>
@@ -35899,10 +35899,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>230.4615115717709</v>
+        <v>271.0430832011201</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R17" t="n">
         <v>76.39716150335175</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
         <v>231.8086389496855</v>
@@ -35978,7 +35978,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
-        <v>305.147393207775</v>
+        <v>305.1473932077745</v>
       </c>
       <c r="Q18" t="n">
         <v>159.3652826117113</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>46.68561682995296</v>
       </c>
       <c r="K19" t="n">
         <v>33.9436239844883</v>
@@ -36060,7 +36060,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.68561682995292</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,10 +36121,10 @@
         <v>238.8548674382202</v>
       </c>
       <c r="K20" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L20" t="n">
-        <v>517.5284318949278</v>
+        <v>391.9809383818202</v>
       </c>
       <c r="M20" t="n">
         <v>397.2112790435232</v>
@@ -36133,7 +36133,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
-        <v>348.6670104907976</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P20" t="n">
         <v>230.4615115717709</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
         <v>231.8086389496855</v>
@@ -36218,7 +36218,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36258,19 +36258,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>14.58789090194205</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>15.17321671797629</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>8.350146373938031</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L22" t="n">
-        <v>101.6233125255146</v>
+        <v>148.3089293554677</v>
       </c>
       <c r="M22" t="n">
         <v>119.1853597248502</v>
@@ -36300,7 +36300,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>8.574362836096576</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K23" t="n">
-        <v>408.6950975109244</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
         <v>351.3993667524709</v>
@@ -36370,13 +36370,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>308.0854388614484</v>
+        <v>348.6670104907983</v>
       </c>
       <c r="P23" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q23" t="n">
-        <v>135.9676864642354</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R23" t="n">
         <v>76.39716150335175</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
         <v>231.8086389496855</v>
@@ -36455,7 +36455,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36495,19 +36495,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>14.58789090194205</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>15.6401410461626</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.284368163872024</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -36534,10 +36534,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q25" t="n">
-        <v>28.58311525926155</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>201.3868711573419</v>
+        <v>201.386871157342</v>
       </c>
       <c r="K26" t="n">
         <v>371.2271012300461</v>
       </c>
       <c r="L26" t="n">
-        <v>480.0604356140496</v>
+        <v>480.0604356140497</v>
       </c>
       <c r="M26" t="n">
         <v>525.8723479051018</v>
       </c>
       <c r="N26" t="n">
-        <v>510.8139564249279</v>
+        <v>465.2643293301062</v>
       </c>
       <c r="O26" t="n">
         <v>436.7465077230271</v>
@@ -36613,10 +36613,10 @@
         <v>359.1225804333496</v>
       </c>
       <c r="Q26" t="n">
-        <v>178.4975566016434</v>
+        <v>224.0471836964645</v>
       </c>
       <c r="R26" t="n">
-        <v>38.92916522247347</v>
+        <v>38.9291652224735</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.20440266160966</v>
+        <v>69.20440266160969</v>
       </c>
       <c r="K28" t="n">
         <v>33.9436239844883</v>
       </c>
       <c r="L28" t="n">
-        <v>230.2843813870933</v>
+        <v>117.1168541097177</v>
       </c>
       <c r="M28" t="n">
-        <v>247.8464285864289</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N28" t="n">
-        <v>119.6185270197983</v>
+        <v>248.279595881377</v>
       </c>
       <c r="O28" t="n">
-        <v>114.9517703677284</v>
+        <v>228.1192976451036</v>
       </c>
       <c r="P28" t="n">
-        <v>192.2655978798996</v>
+        <v>192.2655978798997</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.5091009287308</v>
+        <v>90.50910092873083</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>201.3868711573419</v>
+        <v>201.386871157342</v>
       </c>
       <c r="K29" t="n">
         <v>371.2271012300461</v>
       </c>
       <c r="L29" t="n">
-        <v>480.0604356140496</v>
+        <v>480.0604356140497</v>
       </c>
       <c r="M29" t="n">
-        <v>480.3227208102806</v>
+        <v>525.8723479051018</v>
       </c>
       <c r="N29" t="n">
-        <v>510.8139564249279</v>
+        <v>465.2643293301072</v>
       </c>
       <c r="O29" t="n">
         <v>436.7465077230271</v>
@@ -36853,7 +36853,7 @@
         <v>224.0471836964645</v>
       </c>
       <c r="R29" t="n">
-        <v>38.92916522247347</v>
+        <v>38.9291652224735</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.20440266160966</v>
+        <v>69.20440266160969</v>
       </c>
       <c r="K31" t="n">
-        <v>162.6046928460669</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L31" t="n">
-        <v>230.2843813870933</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M31" t="n">
         <v>247.8464285864289</v>
       </c>
       <c r="N31" t="n">
-        <v>135.1120686040019</v>
+        <v>248.279595881377</v>
       </c>
       <c r="O31" t="n">
-        <v>99.45822878352493</v>
+        <v>114.9517703677281</v>
       </c>
       <c r="P31" t="n">
-        <v>63.604529018321</v>
+        <v>192.2655978798997</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.5091009287308</v>
+        <v>90.50910092873083</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,10 +37069,10 @@
         <v>209.5017307825132</v>
       </c>
       <c r="K32" t="n">
-        <v>273.3401634355532</v>
+        <v>379.3419608552174</v>
       </c>
       <c r="L32" t="n">
-        <v>351.3993667524709</v>
+        <v>488.1752952392209</v>
       </c>
       <c r="M32" t="n">
         <v>533.9872075302731</v>
@@ -37081,10 +37081,10 @@
         <v>518.9288160500992</v>
       </c>
       <c r="O32" t="n">
-        <v>444.8613673481984</v>
+        <v>338.8595699285343</v>
       </c>
       <c r="P32" t="n">
-        <v>367.2374400585209</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q32" t="n">
         <v>232.1620433216358</v>
@@ -37227,10 +37227,10 @@
         <v>77.31926228678094</v>
       </c>
       <c r="K34" t="n">
-        <v>170.7195524712382</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
-        <v>101.6233125255146</v>
+        <v>238.3992410122646</v>
       </c>
       <c r="M34" t="n">
         <v>119.1853597248502</v>
@@ -37239,13 +37239,13 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2341572702749</v>
+        <v>215.4553428846506</v>
       </c>
       <c r="P34" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>77.84514616827772</v>
+        <v>98.62396055390208</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>113.3073739251128</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K35" t="n">
-        <v>408.6950975109244</v>
+        <v>283.1476039978169</v>
       </c>
       <c r="L35" t="n">
         <v>351.3993667524709</v>
@@ -37315,7 +37315,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
-        <v>382.1528875633492</v>
+        <v>548.2819527058061</v>
       </c>
       <c r="O35" t="n">
         <v>308.0854388614484</v>
@@ -37324,7 +37324,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
         <v>76.39716150335175</v>
@@ -37443,19 +37443,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>14.58789090194205</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>15.6401410461626</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.284368163872024</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -37482,10 +37482,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.58311525926155</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37546,22 +37546,22 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L38" t="n">
-        <v>351.3993667524709</v>
+        <v>517.5284318949278</v>
       </c>
       <c r="M38" t="n">
-        <v>397.2112790435232</v>
+        <v>437.7928506728725</v>
       </c>
       <c r="N38" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O38" t="n">
-        <v>348.6670104907978</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
         <v>396.5905767142278</v>
       </c>
       <c r="Q38" t="n">
-        <v>261.5151799773428</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R38" t="n">
         <v>76.39716150335175</v>
@@ -37683,19 +37683,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>15.6401410461626</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>8.350146373938031</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>7.522112691876059</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37719,10 +37719,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.58311525926155</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
-        <v>283.1476039978168</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
-        <v>517.5284318949278</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M41" t="n">
         <v>397.2112790435232</v>
@@ -37792,13 +37792,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P41" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.38611483488586</v>
+        <v>135.9676864642354</v>
       </c>
       <c r="R41" t="n">
         <v>76.39716150335175</v>
@@ -37877,7 +37877,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.3652826117113</v>
+        <v>159.3652826117107</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37917,19 +37917,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>14.58789090194205</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>15.6401410461626</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>15.17321671797629</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.284368163872024</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37956,10 +37956,10 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.58311525926155</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.10250157069137</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>72.72580229576329</v>
+        <v>238.8548674382202</v>
       </c>
       <c r="K44" t="n">
-        <v>283.1476039978166</v>
+        <v>283.1476039978169</v>
       </c>
       <c r="L44" t="n">
         <v>351.3993667524709</v>
@@ -38029,16 +38029,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O44" t="n">
-        <v>474.2145040039054</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
-        <v>95.38611483488586</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R44" t="n">
-        <v>76.39716150335175</v>
+        <v>76.39716150335173</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.68561682995292</v>
+        <v>46.68561682995327</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
